--- a/Base.WebApi/Import/TimingPost/TimingPost.xlsx
+++ b/Base.WebApi/Import/TimingPost/TimingPost.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6511384F-D959-43E8-839A-A29E013445A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="5760" yWindow="1032" windowWidth="17280" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,7 +436,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -501,7 +502,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -778,19 +779,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D493"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A471" workbookViewId="0">
+      <selection activeCell="G479" sqref="G479"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="20.7109375" style="2" customWidth="1"/>
+    <col min="1" max="4" width="20.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
@@ -804,7 +805,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -818,7 +819,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -832,7 +833,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -846,7 +847,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -860,7 +861,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -874,7 +875,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -888,7 +889,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -902,7 +903,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -916,7 +917,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -930,7 +931,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -944,7 +945,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -958,7 +959,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -972,7 +973,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -986,7 +987,7 @@
         <v>45359</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1000,7 +1001,7 @@
         <v>45385</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
@@ -1014,7 +1015,7 @@
         <v>45413</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -1028,7 +1029,7 @@
         <v>45399</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1042,7 +1043,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -1056,7 +1057,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -1070,7 +1071,7 @@
         <v>45359</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
@@ -1084,7 +1085,7 @@
         <v>45399</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
@@ -1098,7 +1099,7 @@
         <v>45364</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
@@ -1112,7 +1113,7 @@
         <v>45378</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
@@ -1126,7 +1127,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
@@ -1140,7 +1141,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -1154,7 +1155,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -1168,7 +1169,7 @@
         <v>45364</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
@@ -1182,7 +1183,7 @@
         <v>45406</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>10</v>
       </c>
@@ -1196,7 +1197,7 @@
         <v>45378</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>10</v>
       </c>
@@ -1210,7 +1211,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
@@ -1224,7 +1225,7 @@
         <v>45455</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>9</v>
       </c>
@@ -1238,7 +1239,7 @@
         <v>45363</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>9</v>
       </c>
@@ -1252,7 +1253,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>9</v>
       </c>
@@ -1266,7 +1267,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>9</v>
       </c>
@@ -1280,7 +1281,7 @@
         <v>45406</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>6</v>
       </c>
@@ -1294,7 +1295,7 @@
         <v>45441</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
@@ -1308,7 +1309,7 @@
         <v>45483</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>6</v>
       </c>
@@ -1322,7 +1323,7 @@
         <v>45455</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
@@ -1336,7 +1337,7 @@
         <v>45469</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
@@ -1350,7 +1351,7 @@
         <v>45406</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>8</v>
       </c>
@@ -1364,7 +1365,7 @@
         <v>45420</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>8</v>
       </c>
@@ -1378,7 +1379,7 @@
         <v>45434</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>8</v>
       </c>
@@ -1392,7 +1393,7 @@
         <v>45448</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
@@ -1406,7 +1407,7 @@
         <v>45462</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>8</v>
       </c>
@@ -1420,7 +1421,7 @@
         <v>45490</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
@@ -1434,7 +1435,7 @@
         <v>45476</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>7</v>
       </c>
@@ -1448,7 +1449,7 @@
         <v>45413</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>7</v>
       </c>
@@ -1462,7 +1463,7 @@
         <v>45434</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>7</v>
       </c>
@@ -1476,7 +1477,7 @@
         <v>45476</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>7</v>
       </c>
@@ -1490,7 +1491,7 @@
         <v>45448</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
@@ -1504,7 +1505,7 @@
         <v>45490</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>10</v>
       </c>
@@ -1518,7 +1519,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>10</v>
       </c>
@@ -1532,7 +1533,7 @@
         <v>45469</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
@@ -1546,7 +1547,7 @@
         <v>45441</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>10</v>
       </c>
@@ -1560,7 +1561,7 @@
         <v>45483</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>10</v>
       </c>
@@ -1574,7 +1575,7 @@
         <v>45503</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>4</v>
       </c>
@@ -1588,7 +1589,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>4</v>
       </c>
@@ -1602,7 +1603,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>4</v>
       </c>
@@ -1616,7 +1617,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>1</v>
       </c>
@@ -1630,7 +1631,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>1</v>
       </c>
@@ -1644,7 +1645,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>1</v>
       </c>
@@ -1658,7 +1659,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>2</v>
       </c>
@@ -1672,7 +1673,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>0</v>
       </c>
@@ -1686,7 +1687,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>2</v>
       </c>
@@ -1700,7 +1701,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>0</v>
       </c>
@@ -1714,7 +1715,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>0</v>
       </c>
@@ -1728,7 +1729,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>2</v>
       </c>
@@ -1742,7 +1743,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>3</v>
       </c>
@@ -1756,7 +1757,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>4</v>
       </c>
@@ -1770,7 +1771,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>2</v>
       </c>
@@ -1784,7 +1785,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>5</v>
       </c>
@@ -1798,7 +1799,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>3</v>
       </c>
@@ -1812,7 +1813,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>0</v>
       </c>
@@ -1826,7 +1827,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>1</v>
       </c>
@@ -1840,7 +1841,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>4</v>
       </c>
@@ -1854,7 +1855,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>2</v>
       </c>
@@ -1868,7 +1869,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>1</v>
       </c>
@@ -1882,7 +1883,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>5</v>
       </c>
@@ -1896,7 +1897,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>3</v>
       </c>
@@ -1910,7 +1911,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>0</v>
       </c>
@@ -1924,7 +1925,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>4</v>
       </c>
@@ -1938,7 +1939,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>2</v>
       </c>
@@ -1952,7 +1953,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>1</v>
       </c>
@@ -1966,7 +1967,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>5</v>
       </c>
@@ -1980,7 +1981,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>3</v>
       </c>
@@ -1994,7 +1995,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>0</v>
       </c>
@@ -2008,7 +2009,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>6</v>
       </c>
@@ -2022,7 +2023,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>7</v>
       </c>
@@ -2036,7 +2037,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>9</v>
       </c>
@@ -2050,7 +2051,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>10</v>
       </c>
@@ -2064,7 +2065,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>9</v>
       </c>
@@ -2078,7 +2079,7 @@
         <v>45433</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>9</v>
       </c>
@@ -2092,7 +2093,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>9</v>
       </c>
@@ -2106,7 +2107,7 @@
         <v>45489</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>9</v>
       </c>
@@ -2120,7 +2121,7 @@
         <v>45419</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>9</v>
       </c>
@@ -2134,7 +2135,7 @@
         <v>45447</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>9</v>
       </c>
@@ -2148,7 +2149,7 @@
         <v>45475</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>6</v>
       </c>
@@ -2162,7 +2163,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>6</v>
       </c>
@@ -2176,7 +2177,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>9</v>
       </c>
@@ -2190,7 +2191,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>9</v>
       </c>
@@ -2204,7 +2205,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>7</v>
       </c>
@@ -2218,7 +2219,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>7</v>
       </c>
@@ -2232,7 +2233,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>10</v>
       </c>
@@ -2246,7 +2247,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>10</v>
       </c>
@@ -2260,7 +2261,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>6</v>
       </c>
@@ -2274,7 +2275,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>6</v>
       </c>
@@ -2288,7 +2289,7 @@
         <v>45361</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>7</v>
       </c>
@@ -2302,7 +2303,7 @@
         <v>45378</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>7</v>
       </c>
@@ -2316,7 +2317,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>7</v>
       </c>
@@ -2330,7 +2331,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>6</v>
       </c>
@@ -2344,7 +2345,7 @@
         <v>45417</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>6</v>
       </c>
@@ -2358,7 +2359,7 @@
         <v>45459</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>7</v>
       </c>
@@ -2372,7 +2373,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>3</v>
       </c>
@@ -2386,7 +2387,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>3</v>
       </c>
@@ -2400,7 +2401,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>8</v>
       </c>
@@ -2414,7 +2415,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>11</v>
       </c>
@@ -2428,7 +2429,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>11</v>
       </c>
@@ -2442,7 +2443,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>11</v>
       </c>
@@ -2456,7 +2457,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>12</v>
       </c>
@@ -2470,7 +2471,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>13</v>
       </c>
@@ -2484,7 +2485,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>13</v>
       </c>
@@ -2498,7 +2499,7 @@
         <v>45407</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>14</v>
       </c>
@@ -2512,7 +2513,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>15</v>
       </c>
@@ -2526,7 +2527,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>16</v>
       </c>
@@ -2540,7 +2541,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>17</v>
       </c>
@@ -2554,7 +2555,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>17</v>
       </c>
@@ -2568,7 +2569,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>18</v>
       </c>
@@ -2582,7 +2583,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>19</v>
       </c>
@@ -2596,7 +2597,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>18</v>
       </c>
@@ -2610,7 +2611,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>20</v>
       </c>
@@ -2624,7 +2625,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>20</v>
       </c>
@@ -2638,7 +2639,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>12</v>
       </c>
@@ -2652,7 +2653,7 @@
         <v>45364</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>12</v>
       </c>
@@ -2666,7 +2667,7 @@
         <v>45378</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>12</v>
       </c>
@@ -2680,7 +2681,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>12</v>
       </c>
@@ -2694,7 +2695,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>12</v>
       </c>
@@ -2708,7 +2709,7 @@
         <v>45406</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>12</v>
       </c>
@@ -2722,7 +2723,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>12</v>
       </c>
@@ -2736,7 +2737,7 @@
         <v>45441</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>12</v>
       </c>
@@ -2750,7 +2751,7 @@
         <v>45476</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>12</v>
       </c>
@@ -2764,7 +2765,7 @@
         <v>45490</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>12</v>
       </c>
@@ -2778,7 +2779,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>13</v>
       </c>
@@ -2792,7 +2793,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>13</v>
       </c>
@@ -2806,7 +2807,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>13</v>
       </c>
@@ -2820,7 +2821,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>11</v>
       </c>
@@ -2834,7 +2835,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>11</v>
       </c>
@@ -2848,7 +2849,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>11</v>
       </c>
@@ -2862,7 +2863,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>11</v>
       </c>
@@ -2876,7 +2877,7 @@
         <v>45458</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>11</v>
       </c>
@@ -2890,7 +2891,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>11</v>
       </c>
@@ -2904,7 +2905,7 @@
         <v>45488</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>11</v>
       </c>
@@ -2918,7 +2919,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>15</v>
       </c>
@@ -2932,7 +2933,7 @@
         <v>45406</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>16</v>
       </c>
@@ -2946,7 +2947,7 @@
         <v>45406</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>14</v>
       </c>
@@ -2960,7 +2961,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>15</v>
       </c>
@@ -2974,7 +2975,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>16</v>
       </c>
@@ -2988,7 +2989,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>17</v>
       </c>
@@ -3002,7 +3003,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>15</v>
       </c>
@@ -3016,7 +3017,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>17</v>
       </c>
@@ -3030,7 +3031,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>14</v>
       </c>
@@ -3044,7 +3045,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>19</v>
       </c>
@@ -3058,7 +3059,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>18</v>
       </c>
@@ -3072,7 +3073,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>20</v>
       </c>
@@ -3086,7 +3087,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>18</v>
       </c>
@@ -3100,7 +3101,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>19</v>
       </c>
@@ -3114,7 +3115,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>19</v>
       </c>
@@ -3128,7 +3129,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>18</v>
       </c>
@@ -3142,7 +3143,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>20</v>
       </c>
@@ -3156,7 +3157,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>20</v>
       </c>
@@ -3170,7 +3171,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>20</v>
       </c>
@@ -3184,7 +3185,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>15</v>
       </c>
@@ -3198,7 +3199,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>16</v>
       </c>
@@ -3212,7 +3213,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>17</v>
       </c>
@@ -3226,7 +3227,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>12</v>
       </c>
@@ -3240,7 +3241,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>12</v>
       </c>
@@ -3254,7 +3255,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>12</v>
       </c>
@@ -3268,7 +3269,7 @@
         <v>45626</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>12</v>
       </c>
@@ -3282,7 +3283,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>12</v>
       </c>
@@ -3296,7 +3297,7 @@
         <v>45688</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>12</v>
       </c>
@@ -3310,7 +3311,7 @@
         <v>45716</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>12</v>
       </c>
@@ -3324,7 +3325,7 @@
         <v>45747</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>15</v>
       </c>
@@ -3338,7 +3339,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>20</v>
       </c>
@@ -3352,7 +3353,7 @@
         <v>45361</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>19</v>
       </c>
@@ -3366,7 +3367,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>12</v>
       </c>
@@ -3380,7 +3381,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>20</v>
       </c>
@@ -3394,7 +3395,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>12</v>
       </c>
@@ -3408,7 +3409,7 @@
         <v>45455</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>12</v>
       </c>
@@ -3422,7 +3423,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>12</v>
       </c>
@@ -3436,7 +3437,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>12</v>
       </c>
@@ -3450,7 +3451,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>12</v>
       </c>
@@ -3464,7 +3465,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>12</v>
       </c>
@@ -3478,7 +3479,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>12</v>
       </c>
@@ -3492,7 +3493,7 @@
         <v>45535</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>12</v>
       </c>
@@ -3506,7 +3507,7 @@
         <v>45565</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>12</v>
       </c>
@@ -3520,7 +3521,7 @@
         <v>45596</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>17</v>
       </c>
@@ -3534,7 +3535,7 @@
         <v>45406</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>17</v>
       </c>
@@ -3548,7 +3549,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>14</v>
       </c>
@@ -3562,7 +3563,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>16</v>
       </c>
@@ -3576,7 +3577,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>15</v>
       </c>
@@ -3590,7 +3591,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>16</v>
       </c>
@@ -3604,7 +3605,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>14</v>
       </c>
@@ -3618,7 +3619,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>12</v>
       </c>
@@ -3632,7 +3633,7 @@
         <v>45442</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>15</v>
       </c>
@@ -3646,7 +3647,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>15</v>
       </c>
@@ -3660,7 +3661,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>17</v>
       </c>
@@ -3674,7 +3675,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>15</v>
       </c>
@@ -3688,7 +3689,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>13</v>
       </c>
@@ -3702,7 +3703,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>14</v>
       </c>
@@ -3716,7 +3717,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>14</v>
       </c>
@@ -3730,7 +3731,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>13</v>
       </c>
@@ -3744,7 +3745,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>12</v>
       </c>
@@ -3758,7 +3759,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>12</v>
       </c>
@@ -3772,7 +3773,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>18</v>
       </c>
@@ -3786,7 +3787,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>6</v>
       </c>
@@ -3800,7 +3801,7 @@
         <v>45442</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>7</v>
       </c>
@@ -3814,7 +3815,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>8</v>
       </c>
@@ -3828,7 +3829,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>19</v>
       </c>
@@ -3842,7 +3843,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>10</v>
       </c>
@@ -3856,7 +3857,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>10</v>
       </c>
@@ -3870,7 +3871,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>10</v>
       </c>
@@ -3884,7 +3885,7 @@
         <v>45442</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>10</v>
       </c>
@@ -3898,7 +3899,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>8</v>
       </c>
@@ -3912,7 +3913,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>8</v>
       </c>
@@ -3926,7 +3927,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>9</v>
       </c>
@@ -3940,7 +3941,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>6</v>
       </c>
@@ -3954,7 +3955,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>9</v>
       </c>
@@ -3968,7 +3969,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>6</v>
       </c>
@@ -3982,7 +3983,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>9</v>
       </c>
@@ -3996,7 +3997,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>6</v>
       </c>
@@ -4010,7 +4011,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>6</v>
       </c>
@@ -4024,7 +4025,7 @@
         <v>45417</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>12</v>
       </c>
@@ -4038,7 +4039,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>12</v>
       </c>
@@ -4052,7 +4053,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>12</v>
       </c>
@@ -4066,7 +4067,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>13</v>
       </c>
@@ -4080,7 +4081,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>12</v>
       </c>
@@ -4094,7 +4095,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>12</v>
       </c>
@@ -4108,7 +4109,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>12</v>
       </c>
@@ -4122,7 +4123,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>12</v>
       </c>
@@ -4136,7 +4137,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>12</v>
       </c>
@@ -4150,7 +4151,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>12</v>
       </c>
@@ -4164,7 +4165,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>12</v>
       </c>
@@ -4178,7 +4179,7 @@
         <v>45535</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>16</v>
       </c>
@@ -4192,7 +4193,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>13</v>
       </c>
@@ -4206,7 +4207,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>13</v>
       </c>
@@ -4220,7 +4221,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>12</v>
       </c>
@@ -4234,7 +4235,7 @@
         <v>45434</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>12</v>
       </c>
@@ -4248,7 +4249,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>0</v>
       </c>
@@ -4262,7 +4263,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>1</v>
       </c>
@@ -4276,7 +4277,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>2</v>
       </c>
@@ -4290,7 +4291,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>3</v>
       </c>
@@ -4304,7 +4305,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>4</v>
       </c>
@@ -4318,7 +4319,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>4</v>
       </c>
@@ -4332,7 +4333,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>2</v>
       </c>
@@ -4346,7 +4347,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>1</v>
       </c>
@@ -4360,7 +4361,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>5</v>
       </c>
@@ -4374,7 +4375,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>3</v>
       </c>
@@ -4388,7 +4389,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>0</v>
       </c>
@@ -4402,7 +4403,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>6</v>
       </c>
@@ -4416,7 +4417,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>6</v>
       </c>
@@ -4430,7 +4431,7 @@
         <v>45359</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>6</v>
       </c>
@@ -4444,7 +4445,7 @@
         <v>45385</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>6</v>
       </c>
@@ -4458,7 +4459,7 @@
         <v>45413</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>6</v>
       </c>
@@ -4472,7 +4473,7 @@
         <v>45399</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>6</v>
       </c>
@@ -4486,7 +4487,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>7</v>
       </c>
@@ -4500,7 +4501,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>7</v>
       </c>
@@ -4514,7 +4515,7 @@
         <v>45359</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>7</v>
       </c>
@@ -4528,7 +4529,7 @@
         <v>45399</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>8</v>
       </c>
@@ -4542,7 +4543,7 @@
         <v>45364</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>8</v>
       </c>
@@ -4556,7 +4557,7 @@
         <v>45378</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>8</v>
       </c>
@@ -4570,7 +4571,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>9</v>
       </c>
@@ -4584,7 +4585,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>10</v>
       </c>
@@ -4598,7 +4599,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>10</v>
       </c>
@@ -4612,7 +4613,7 @@
         <v>45364</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>10</v>
       </c>
@@ -4626,7 +4627,7 @@
         <v>45406</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>10</v>
       </c>
@@ -4640,7 +4641,7 @@
         <v>45378</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>10</v>
       </c>
@@ -4654,7 +4655,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>10</v>
       </c>
@@ -4668,7 +4669,7 @@
         <v>45455</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>9</v>
       </c>
@@ -4682,7 +4683,7 @@
         <v>45363</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>9</v>
       </c>
@@ -4696,7 +4697,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>9</v>
       </c>
@@ -4710,7 +4711,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>9</v>
       </c>
@@ -4724,7 +4725,7 @@
         <v>45406</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>6</v>
       </c>
@@ -4738,7 +4739,7 @@
         <v>45441</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>6</v>
       </c>
@@ -4752,7 +4753,7 @@
         <v>45483</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>6</v>
       </c>
@@ -4766,7 +4767,7 @@
         <v>45455</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>6</v>
       </c>
@@ -4780,7 +4781,7 @@
         <v>45469</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>8</v>
       </c>
@@ -4794,7 +4795,7 @@
         <v>45406</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>8</v>
       </c>
@@ -4808,7 +4809,7 @@
         <v>45420</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>8</v>
       </c>
@@ -4822,7 +4823,7 @@
         <v>45434</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>8</v>
       </c>
@@ -4836,7 +4837,7 @@
         <v>45448</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>8</v>
       </c>
@@ -4850,7 +4851,7 @@
         <v>45462</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>8</v>
       </c>
@@ -4864,7 +4865,7 @@
         <v>45490</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>8</v>
       </c>
@@ -4878,7 +4879,7 @@
         <v>45476</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>7</v>
       </c>
@@ -4892,7 +4893,7 @@
         <v>45413</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>7</v>
       </c>
@@ -4906,7 +4907,7 @@
         <v>45434</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>7</v>
       </c>
@@ -4920,7 +4921,7 @@
         <v>45476</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>7</v>
       </c>
@@ -4934,7 +4935,7 @@
         <v>45448</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>7</v>
       </c>
@@ -4948,7 +4949,7 @@
         <v>45490</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>10</v>
       </c>
@@ -4962,7 +4963,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>10</v>
       </c>
@@ -4976,7 +4977,7 @@
         <v>45469</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>10</v>
       </c>
@@ -4990,7 +4991,7 @@
         <v>45441</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>10</v>
       </c>
@@ -5004,7 +5005,7 @@
         <v>45483</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>10</v>
       </c>
@@ -5018,7 +5019,7 @@
         <v>45503</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>4</v>
       </c>
@@ -5032,7 +5033,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>4</v>
       </c>
@@ -5046,7 +5047,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>4</v>
       </c>
@@ -5060,7 +5061,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>1</v>
       </c>
@@ -5074,7 +5075,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>1</v>
       </c>
@@ -5088,7 +5089,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
         <v>1</v>
       </c>
@@ -5102,7 +5103,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>2</v>
       </c>
@@ -5116,7 +5117,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>0</v>
       </c>
@@ -5130,7 +5131,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>2</v>
       </c>
@@ -5144,7 +5145,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
         <v>0</v>
       </c>
@@ -5158,7 +5159,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>0</v>
       </c>
@@ -5172,7 +5173,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>2</v>
       </c>
@@ -5186,7 +5187,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
         <v>3</v>
       </c>
@@ -5200,7 +5201,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
         <v>4</v>
       </c>
@@ -5214,7 +5215,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
         <v>2</v>
       </c>
@@ -5228,7 +5229,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
         <v>5</v>
       </c>
@@ -5242,7 +5243,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
         <v>3</v>
       </c>
@@ -5256,7 +5257,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
         <v>0</v>
       </c>
@@ -5270,7 +5271,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
         <v>1</v>
       </c>
@@ -5284,7 +5285,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
         <v>4</v>
       </c>
@@ -5298,7 +5299,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
         <v>2</v>
       </c>
@@ -5312,7 +5313,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
         <v>1</v>
       </c>
@@ -5326,7 +5327,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
         <v>5</v>
       </c>
@@ -5340,7 +5341,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
         <v>3</v>
       </c>
@@ -5354,7 +5355,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
         <v>0</v>
       </c>
@@ -5368,7 +5369,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
         <v>4</v>
       </c>
@@ -5382,7 +5383,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
         <v>2</v>
       </c>
@@ -5396,7 +5397,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
         <v>1</v>
       </c>
@@ -5410,7 +5411,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
         <v>5</v>
       </c>
@@ -5424,7 +5425,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
         <v>3</v>
       </c>
@@ -5438,7 +5439,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
         <v>0</v>
       </c>
@@ -5452,7 +5453,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
         <v>6</v>
       </c>
@@ -5466,7 +5467,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
         <v>7</v>
       </c>
@@ -5480,7 +5481,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
         <v>9</v>
       </c>
@@ -5494,7 +5495,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
         <v>10</v>
       </c>
@@ -5508,7 +5509,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
         <v>9</v>
       </c>
@@ -5522,7 +5523,7 @@
         <v>45433</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
         <v>9</v>
       </c>
@@ -5536,7 +5537,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
         <v>9</v>
       </c>
@@ -5550,7 +5551,7 @@
         <v>45489</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
         <v>9</v>
       </c>
@@ -5564,7 +5565,7 @@
         <v>45419</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
         <v>9</v>
       </c>
@@ -5578,7 +5579,7 @@
         <v>45447</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
         <v>9</v>
       </c>
@@ -5592,7 +5593,7 @@
         <v>45475</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
         <v>6</v>
       </c>
@@ -5606,7 +5607,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
         <v>6</v>
       </c>
@@ -5620,7 +5621,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
         <v>9</v>
       </c>
@@ -5634,7 +5635,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
         <v>9</v>
       </c>
@@ -5648,7 +5649,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
         <v>7</v>
       </c>
@@ -5662,7 +5663,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
         <v>7</v>
       </c>
@@ -5676,7 +5677,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
         <v>10</v>
       </c>
@@ -5690,7 +5691,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
         <v>10</v>
       </c>
@@ -5704,7 +5705,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
         <v>6</v>
       </c>
@@ -5718,7 +5719,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
         <v>6</v>
       </c>
@@ -5732,7 +5733,7 @@
         <v>45361</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
         <v>7</v>
       </c>
@@ -5746,7 +5747,7 @@
         <v>45378</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
         <v>7</v>
       </c>
@@ -5760,7 +5761,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
         <v>7</v>
       </c>
@@ -5774,7 +5775,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
         <v>6</v>
       </c>
@@ -5788,7 +5789,7 @@
         <v>45417</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
         <v>6</v>
       </c>
@@ -5802,7 +5803,7 @@
         <v>45459</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
         <v>7</v>
       </c>
@@ -5816,7 +5817,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
         <v>3</v>
       </c>
@@ -5830,7 +5831,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
         <v>3</v>
       </c>
@@ -5844,7 +5845,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
         <v>8</v>
       </c>
@@ -5858,7 +5859,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
         <v>11</v>
       </c>
@@ -5872,7 +5873,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
         <v>11</v>
       </c>
@@ -5886,7 +5887,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
         <v>11</v>
       </c>
@@ -5900,7 +5901,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
         <v>12</v>
       </c>
@@ -5914,7 +5915,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
         <v>13</v>
       </c>
@@ -5928,7 +5929,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
         <v>13</v>
       </c>
@@ -5942,7 +5943,7 @@
         <v>45407</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
         <v>14</v>
       </c>
@@ -5956,7 +5957,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
         <v>15</v>
       </c>
@@ -5970,7 +5971,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
         <v>16</v>
       </c>
@@ -5984,7 +5985,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
         <v>17</v>
       </c>
@@ -5998,7 +5999,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
         <v>17</v>
       </c>
@@ -6012,7 +6013,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
         <v>18</v>
       </c>
@@ -6026,7 +6027,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
         <v>19</v>
       </c>
@@ -6040,7 +6041,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
         <v>18</v>
       </c>
@@ -6054,7 +6055,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
         <v>20</v>
       </c>
@@ -6068,7 +6069,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
         <v>20</v>
       </c>
@@ -6082,7 +6083,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
         <v>12</v>
       </c>
@@ -6096,7 +6097,7 @@
         <v>45364</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
         <v>12</v>
       </c>
@@ -6110,7 +6111,7 @@
         <v>45378</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
         <v>12</v>
       </c>
@@ -6124,7 +6125,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
         <v>12</v>
       </c>
@@ -6138,7 +6139,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
         <v>12</v>
       </c>
@@ -6152,7 +6153,7 @@
         <v>45406</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
         <v>12</v>
       </c>
@@ -6166,7 +6167,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
         <v>12</v>
       </c>
@@ -6180,7 +6181,7 @@
         <v>45441</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
         <v>12</v>
       </c>
@@ -6194,7 +6195,7 @@
         <v>45476</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
         <v>12</v>
       </c>
@@ -6208,7 +6209,7 @@
         <v>45490</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
         <v>12</v>
       </c>
@@ -6222,7 +6223,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
         <v>13</v>
       </c>
@@ -6236,7 +6237,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
         <v>13</v>
       </c>
@@ -6250,7 +6251,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
         <v>13</v>
       </c>
@@ -6264,7 +6265,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
         <v>11</v>
       </c>
@@ -6278,7 +6279,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
         <v>11</v>
       </c>
@@ -6292,7 +6293,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
         <v>11</v>
       </c>
@@ -6306,7 +6307,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
         <v>11</v>
       </c>
@@ -6320,7 +6321,7 @@
         <v>45458</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
         <v>11</v>
       </c>
@@ -6334,7 +6335,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
         <v>11</v>
       </c>
@@ -6348,7 +6349,7 @@
         <v>45488</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
         <v>11</v>
       </c>
@@ -6362,7 +6363,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
         <v>15</v>
       </c>
@@ -6376,7 +6377,7 @@
         <v>45406</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
         <v>16</v>
       </c>
@@ -6390,7 +6391,7 @@
         <v>45406</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
         <v>14</v>
       </c>
@@ -6404,7 +6405,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
         <v>15</v>
       </c>
@@ -6418,7 +6419,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
         <v>16</v>
       </c>
@@ -6432,7 +6433,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
         <v>17</v>
       </c>
@@ -6446,7 +6447,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
         <v>15</v>
       </c>
@@ -6460,7 +6461,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
         <v>17</v>
       </c>
@@ -6474,7 +6475,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
         <v>14</v>
       </c>
@@ -6488,7 +6489,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
         <v>19</v>
       </c>
@@ -6502,7 +6503,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
         <v>18</v>
       </c>
@@ -6516,7 +6517,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
         <v>20</v>
       </c>
@@ -6530,7 +6531,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
         <v>18</v>
       </c>
@@ -6544,7 +6545,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
         <v>19</v>
       </c>
@@ -6558,7 +6559,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
         <v>19</v>
       </c>
@@ -6572,7 +6573,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" s="2" t="s">
         <v>18</v>
       </c>
@@ -6586,7 +6587,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="2" t="s">
         <v>20</v>
       </c>
@@ -6600,7 +6601,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
         <v>20</v>
       </c>
@@ -6614,7 +6615,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
         <v>20</v>
       </c>
@@ -6628,7 +6629,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
         <v>15</v>
       </c>
@@ -6642,7 +6643,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="2" t="s">
         <v>16</v>
       </c>
@@ -6656,7 +6657,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="2" t="s">
         <v>17</v>
       </c>
@@ -6670,7 +6671,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="2" t="s">
         <v>12</v>
       </c>
@@ -6684,7 +6685,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="2" t="s">
         <v>12</v>
       </c>
@@ -6698,7 +6699,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="2" t="s">
         <v>12</v>
       </c>
@@ -6712,7 +6713,7 @@
         <v>45626</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" s="2" t="s">
         <v>12</v>
       </c>
@@ -6726,7 +6727,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" s="2" t="s">
         <v>12</v>
       </c>
@@ -6740,7 +6741,7 @@
         <v>45688</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="2" t="s">
         <v>12</v>
       </c>
@@ -6754,7 +6755,7 @@
         <v>45716</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="2" t="s">
         <v>12</v>
       </c>
@@ -6768,7 +6769,7 @@
         <v>45747</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="2" t="s">
         <v>15</v>
       </c>
@@ -6782,7 +6783,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" s="2" t="s">
         <v>20</v>
       </c>
@@ -6796,7 +6797,7 @@
         <v>45361</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="2" t="s">
         <v>19</v>
       </c>
@@ -6810,7 +6811,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" s="2" t="s">
         <v>12</v>
       </c>
@@ -6824,7 +6825,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" s="2" t="s">
         <v>20</v>
       </c>
@@ -6838,7 +6839,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" s="2" t="s">
         <v>12</v>
       </c>
@@ -6852,7 +6853,7 @@
         <v>45455</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" s="2" t="s">
         <v>12</v>
       </c>
@@ -6866,7 +6867,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="2" t="s">
         <v>12</v>
       </c>
@@ -6880,7 +6881,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="2" t="s">
         <v>12</v>
       </c>
@@ -6894,7 +6895,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" s="2" t="s">
         <v>12</v>
       </c>
@@ -6908,7 +6909,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" s="2" t="s">
         <v>12</v>
       </c>
@@ -6922,7 +6923,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" s="2" t="s">
         <v>12</v>
       </c>
@@ -6936,7 +6937,7 @@
         <v>45535</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" s="2" t="s">
         <v>12</v>
       </c>
@@ -6950,7 +6951,7 @@
         <v>45565</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" s="2" t="s">
         <v>12</v>
       </c>
@@ -6964,7 +6965,7 @@
         <v>45596</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" s="2" t="s">
         <v>17</v>
       </c>
@@ -6978,7 +6979,7 @@
         <v>45406</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" s="2" t="s">
         <v>17</v>
       </c>
@@ -6992,7 +6993,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" s="2" t="s">
         <v>14</v>
       </c>
@@ -7006,7 +7007,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" s="2" t="s">
         <v>16</v>
       </c>
@@ -7020,7 +7021,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" s="2" t="s">
         <v>15</v>
       </c>
@@ -7034,7 +7035,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" s="2" t="s">
         <v>16</v>
       </c>
@@ -7048,7 +7049,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" s="2" t="s">
         <v>14</v>
       </c>
@@ -7062,7 +7063,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" s="2" t="s">
         <v>12</v>
       </c>
@@ -7076,7 +7077,7 @@
         <v>45442</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" s="2" t="s">
         <v>15</v>
       </c>
@@ -7090,7 +7091,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" s="2" t="s">
         <v>15</v>
       </c>
@@ -7104,7 +7105,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" s="2" t="s">
         <v>17</v>
       </c>
@@ -7118,7 +7119,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" s="2" t="s">
         <v>15</v>
       </c>
@@ -7132,7 +7133,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" s="2" t="s">
         <v>13</v>
       </c>
@@ -7146,7 +7147,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" s="2" t="s">
         <v>14</v>
       </c>
@@ -7160,7 +7161,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" s="2" t="s">
         <v>14</v>
       </c>
@@ -7174,7 +7175,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" s="2" t="s">
         <v>13</v>
       </c>
@@ -7188,7 +7189,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" s="2" t="s">
         <v>12</v>
       </c>
@@ -7202,7 +7203,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" s="2" t="s">
         <v>12</v>
       </c>
@@ -7216,7 +7217,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" s="2" t="s">
         <v>18</v>
       </c>
@@ -7230,7 +7231,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" s="2" t="s">
         <v>6</v>
       </c>
@@ -7244,7 +7245,7 @@
         <v>45442</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" s="2" t="s">
         <v>7</v>
       </c>
@@ -7258,7 +7259,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" s="2" t="s">
         <v>8</v>
       </c>
@@ -7272,7 +7273,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" s="2" t="s">
         <v>19</v>
       </c>
@@ -7286,7 +7287,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" s="2" t="s">
         <v>10</v>
       </c>
@@ -7300,7 +7301,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" s="2" t="s">
         <v>10</v>
       </c>
@@ -7314,7 +7315,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" s="2" t="s">
         <v>10</v>
       </c>
@@ -7328,7 +7329,7 @@
         <v>45442</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" s="2" t="s">
         <v>10</v>
       </c>
@@ -7342,7 +7343,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" s="2" t="s">
         <v>8</v>
       </c>
@@ -7356,7 +7357,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" s="2" t="s">
         <v>8</v>
       </c>
@@ -7370,7 +7371,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" s="2" t="s">
         <v>9</v>
       </c>
@@ -7384,7 +7385,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" s="2" t="s">
         <v>6</v>
       </c>
@@ -7398,7 +7399,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" s="2" t="s">
         <v>9</v>
       </c>
@@ -7412,7 +7413,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" s="2" t="s">
         <v>6</v>
       </c>
@@ -7426,7 +7427,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" s="2" t="s">
         <v>9</v>
       </c>
@@ -7440,7 +7441,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" s="2" t="s">
         <v>6</v>
       </c>
@@ -7454,7 +7455,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" s="2" t="s">
         <v>6</v>
       </c>
@@ -7468,7 +7469,7 @@
         <v>45417</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" s="2" t="s">
         <v>12</v>
       </c>
@@ -7482,7 +7483,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" s="2" t="s">
         <v>12</v>
       </c>
@@ -7496,7 +7497,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" s="2" t="s">
         <v>12</v>
       </c>
@@ -7510,7 +7511,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" s="2" t="s">
         <v>13</v>
       </c>
@@ -7524,7 +7525,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" s="2" t="s">
         <v>12</v>
       </c>
@@ -7538,7 +7539,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" s="2" t="s">
         <v>12</v>
       </c>
@@ -7552,7 +7553,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" s="2" t="s">
         <v>12</v>
       </c>
@@ -7566,7 +7567,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" s="2" t="s">
         <v>12</v>
       </c>
@@ -7580,7 +7581,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" s="2" t="s">
         <v>12</v>
       </c>
@@ -7594,7 +7595,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" s="2" t="s">
         <v>12</v>
       </c>
@@ -7608,7 +7609,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" s="2" t="s">
         <v>12</v>
       </c>
@@ -7622,7 +7623,7 @@
         <v>45535</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" s="2" t="s">
         <v>16</v>
       </c>
@@ -7636,7 +7637,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" s="2" t="s">
         <v>13</v>
       </c>
@@ -7650,7 +7651,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" s="2" t="s">
         <v>13</v>
       </c>
@@ -7664,7 +7665,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" s="2" t="s">
         <v>12</v>
       </c>
@@ -7678,7 +7679,7 @@
         <v>45434</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" s="2" t="s">
         <v>12</v>
       </c>

--- a/Base.WebApi/Import/TimingPost/TimingPost.xlsx
+++ b/Base.WebApi/Import/TimingPost/TimingPost.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6511384F-D959-43E8-839A-A29E013445A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B264A7-CA36-424A-BFD0-3E5045083760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1032" windowWidth="17280" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A471" workbookViewId="0">
-      <selection activeCell="G479" sqref="G479"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
